--- a/Code/Results/Cases/Case_5_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_134/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.108664671039406</v>
+        <v>0.538671267783343</v>
       </c>
       <c r="C2">
-        <v>0.09484895907664992</v>
+        <v>0.1051590893890193</v>
       </c>
       <c r="D2">
-        <v>0.06809303317531601</v>
+        <v>0.041248916846925</v>
       </c>
       <c r="E2">
-        <v>0.06335272080475463</v>
+        <v>0.09797392431060459</v>
       </c>
       <c r="F2">
-        <v>0.5171441020886078</v>
+        <v>0.8658998088535341</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3621076045799327</v>
+        <v>0.7959050165789847</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.958196708695084</v>
+        <v>0.3331153853717694</v>
       </c>
       <c r="L2">
-        <v>0.2623406713680936</v>
+        <v>0.2056283115882991</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7806813338671619</v>
+        <v>1.617569122752709</v>
       </c>
       <c r="O2">
-        <v>1.550889257650852</v>
+        <v>3.058396782020139</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.964068624350972</v>
+        <v>0.4977341740917325</v>
       </c>
       <c r="C3">
-        <v>0.09033398612703536</v>
+        <v>0.1035833427650914</v>
       </c>
       <c r="D3">
-        <v>0.06179085423966768</v>
+        <v>0.03904359781390099</v>
       </c>
       <c r="E3">
-        <v>0.05896202445789456</v>
+        <v>0.09743708183723854</v>
       </c>
       <c r="F3">
-        <v>0.4925794818839364</v>
+        <v>0.8657033429486631</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3615160248210678</v>
+        <v>0.8011007215043442</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8336550341259397</v>
+        <v>0.2959267575986644</v>
       </c>
       <c r="L3">
-        <v>0.2316317993426367</v>
+        <v>0.1982594525952237</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8184776129537572</v>
+        <v>1.633924489781492</v>
       </c>
       <c r="O3">
-        <v>1.515411289254743</v>
+        <v>3.070715944059117</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8755243074250814</v>
+        <v>0.4727407509762145</v>
       </c>
       <c r="C4">
-        <v>0.08755464522109691</v>
+        <v>0.1026049566053544</v>
       </c>
       <c r="D4">
-        <v>0.05790452944042812</v>
+        <v>0.03767506608321725</v>
       </c>
       <c r="E4">
-        <v>0.05634750678408551</v>
+        <v>0.09715595846720859</v>
       </c>
       <c r="F4">
-        <v>0.4783986427024942</v>
+        <v>0.8660603216340874</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3618162348671845</v>
+        <v>0.8046630018676417</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.757255141356211</v>
+        <v>0.2731019816423839</v>
       </c>
       <c r="L4">
-        <v>0.212995278879788</v>
+        <v>0.1938435960834113</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8426848147380284</v>
+        <v>1.644483976683109</v>
       </c>
       <c r="O4">
-        <v>1.496508224051297</v>
+        <v>3.079838884716693</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8394900065640059</v>
+        <v>0.4625921552024579</v>
       </c>
       <c r="C5">
-        <v>0.0864199699859256</v>
+        <v>0.1022035415682723</v>
       </c>
       <c r="D5">
-        <v>0.05631634981584455</v>
+        <v>0.03711376696979585</v>
       </c>
       <c r="E5">
-        <v>0.05530154217358429</v>
+        <v>0.09705361697469428</v>
       </c>
       <c r="F5">
-        <v>0.4728359623552763</v>
+        <v>0.8663259775372723</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3620993398451198</v>
+        <v>0.8062082719799015</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.726129503138381</v>
+        <v>0.2638035503759824</v>
       </c>
       <c r="L5">
-        <v>0.2054512075093413</v>
+        <v>0.1920715128021016</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8527953423188834</v>
+        <v>1.648917129387462</v>
       </c>
       <c r="O5">
-        <v>1.489498788908008</v>
+        <v>3.083948746751886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8335091213243686</v>
+        <v>0.4609092090261697</v>
       </c>
       <c r="C6">
-        <v>0.0862314251592835</v>
+        <v>0.1021367235026247</v>
       </c>
       <c r="D6">
-        <v>0.05605235655622209</v>
+        <v>0.03702034626972051</v>
       </c>
       <c r="E6">
-        <v>0.05512900841366886</v>
+        <v>0.09703736188988543</v>
       </c>
       <c r="F6">
-        <v>0.4719250338490895</v>
+        <v>0.8663773508396631</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3621558868777335</v>
+        <v>0.8064705181707481</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7209613271741944</v>
+        <v>0.2622597409564662</v>
       </c>
       <c r="L6">
-        <v>0.2042014383668942</v>
+        <v>0.1917789181870972</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8544888803707584</v>
+        <v>1.649661107784386</v>
       </c>
       <c r="O6">
-        <v>1.488375906806596</v>
+        <v>3.084654878968777</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8750381559727884</v>
+        <v>0.4726037350579873</v>
       </c>
       <c r="C7">
-        <v>0.08753935133449176</v>
+        <v>0.1025995539488562</v>
       </c>
       <c r="D7">
-        <v>0.05788312912537208</v>
+        <v>0.03766751079834307</v>
       </c>
       <c r="E7">
-        <v>0.05633332297731997</v>
+        <v>0.09715452875119723</v>
       </c>
       <c r="F7">
-        <v>0.4783227611243603</v>
+        <v>0.8660634176284034</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3618194097977714</v>
+        <v>0.8046834628297468</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7568353501146419</v>
+        <v>0.2729765674920088</v>
       </c>
       <c r="L7">
-        <v>0.2128933384643403</v>
+        <v>0.193819586026919</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8428201804296434</v>
+        <v>1.644543237036654</v>
       </c>
       <c r="O7">
-        <v>1.496410922993178</v>
+        <v>3.079892723548213</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.058751247756476</v>
+        <v>0.5245270623254044</v>
       </c>
       <c r="C8">
-        <v>0.09329350107520895</v>
+        <v>0.1046180392462261</v>
       </c>
       <c r="D8">
-        <v>0.06592336087108208</v>
+        <v>0.04049153719945764</v>
       </c>
       <c r="E8">
-        <v>0.06182130453062129</v>
+        <v>0.09777876813330977</v>
       </c>
       <c r="F8">
-        <v>0.508480447091074</v>
+        <v>0.8657329883880962</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3617621995431719</v>
+        <v>0.7976192937273936</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9152344895449573</v>
+        <v>0.3202911507573276</v>
       </c>
       <c r="L8">
-        <v>0.251704005470657</v>
+        <v>0.2030650309879718</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7935024755365689</v>
+        <v>1.62310111396725</v>
       </c>
       <c r="O8">
-        <v>1.538039728504714</v>
+        <v>3.062320980859653</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.421476427470424</v>
+        <v>0.6274510899459642</v>
       </c>
       <c r="C9">
-        <v>0.1045349012210011</v>
+        <v>0.1084893561278051</v>
       </c>
       <c r="D9">
-        <v>0.08157013480567343</v>
+        <v>0.04591390937508777</v>
       </c>
       <c r="E9">
-        <v>0.07327642693739733</v>
+        <v>0.09938689841980519</v>
       </c>
       <c r="F9">
-        <v>0.5752839214225673</v>
+        <v>0.8688720300209738</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3672010855017049</v>
+        <v>0.7867171728087534</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.22687034358708</v>
+        <v>0.4131286422375524</v>
       </c>
       <c r="L9">
-        <v>0.3297681772322818</v>
+        <v>0.2220544979287951</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7049877532430333</v>
+        <v>1.585155804068794</v>
       </c>
       <c r="O9">
-        <v>1.643984341226286</v>
+        <v>3.04022632527213</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.690341933065753</v>
+        <v>0.703715481109441</v>
       </c>
       <c r="C10">
-        <v>0.1127900303671368</v>
+        <v>0.1112799672328038</v>
       </c>
       <c r="D10">
-        <v>0.09301251797144516</v>
+        <v>0.04982651940309069</v>
       </c>
       <c r="E10">
-        <v>0.08218504167307827</v>
+        <v>0.1008016338701445</v>
       </c>
       <c r="F10">
-        <v>0.6297835484925116</v>
+        <v>0.8734851428682902</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3750010254409659</v>
+        <v>0.7805042750361579</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.457156874499532</v>
+        <v>0.4813499111045303</v>
       </c>
       <c r="L10">
-        <v>0.3886418432913956</v>
+        <v>0.2365275647398022</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.645331112062502</v>
+        <v>1.559775730341798</v>
       </c>
       <c r="O10">
-        <v>1.738778496815257</v>
+        <v>3.031525887103356</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.813377648387899</v>
+        <v>0.7385453508412638</v>
       </c>
       <c r="C11">
-        <v>0.1165500380008027</v>
+        <v>0.1125377160006309</v>
       </c>
       <c r="D11">
-        <v>0.09821110156277513</v>
+        <v>0.05159085896970339</v>
       </c>
       <c r="E11">
-        <v>0.08636116691168638</v>
+        <v>0.101495714173776</v>
       </c>
       <c r="F11">
-        <v>0.6559293195200411</v>
+        <v>0.8760844041170444</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.379474165531569</v>
+        <v>0.7780676722788868</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.562377646019911</v>
+        <v>0.5123847872752378</v>
       </c>
       <c r="L11">
-        <v>0.4158322687898988</v>
+        <v>0.2432245889232263</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6194477623626611</v>
+        <v>1.548771592419298</v>
       </c>
       <c r="O11">
-        <v>1.786088294984495</v>
+        <v>3.029202715278331</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.860090576217232</v>
+        <v>0.7517535861373119</v>
       </c>
       <c r="C12">
-        <v>0.1179750070149197</v>
+        <v>0.1130122920402101</v>
       </c>
       <c r="D12">
-        <v>0.1001791115734747</v>
+        <v>0.05225671511964691</v>
       </c>
       <c r="E12">
-        <v>0.08796175860901556</v>
+        <v>0.1017657882381862</v>
       </c>
       <c r="F12">
-        <v>0.6660402121811018</v>
+        <v>0.8771406247382245</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3813097954726388</v>
+        <v>0.7772009957414951</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.602303132440142</v>
+        <v>0.5241365198428412</v>
       </c>
       <c r="L12">
-        <v>0.426194063811792</v>
+        <v>0.2457767771810069</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6098348855961246</v>
+        <v>1.544682453440084</v>
       </c>
       <c r="O12">
-        <v>1.804650102745285</v>
+        <v>3.028557945559299</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.850024397309255</v>
+        <v>0.7489081269086455</v>
       </c>
       <c r="C13">
-        <v>0.1176680561879522</v>
+        <v>0.1129101598233149</v>
       </c>
       <c r="D13">
-        <v>0.09975528508836362</v>
+        <v>0.05211341209275133</v>
       </c>
       <c r="E13">
-        <v>0.08761616586098597</v>
+        <v>0.1017073012718903</v>
       </c>
       <c r="F13">
-        <v>0.6638530524118096</v>
+        <v>0.8769099504141735</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3809080102095734</v>
+        <v>0.7773851592539955</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.593700640351528</v>
+        <v>0.5216056058189906</v>
       </c>
       <c r="L13">
-        <v>0.423959448323302</v>
+        <v>0.2452264001990301</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6118966679515436</v>
+        <v>1.545559657896668</v>
       </c>
       <c r="O13">
-        <v>1.800622988362306</v>
+        <v>3.028686359773985</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.817218200830951</v>
+        <v>0.739631625456127</v>
       </c>
       <c r="C14">
-        <v>0.1166672455246029</v>
+        <v>0.1125767939738296</v>
       </c>
       <c r="D14">
-        <v>0.09837302036579842</v>
+        <v>0.05164568483124299</v>
       </c>
       <c r="E14">
-        <v>0.08649245566006059</v>
+        <v>0.101517788339379</v>
       </c>
       <c r="F14">
-        <v>0.6567568471632583</v>
+        <v>0.8761698586956825</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3796222909840239</v>
+        <v>0.7779952478446788</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.565660638346657</v>
+        <v>0.5133516228712836</v>
       </c>
       <c r="L14">
-        <v>0.4166833902750113</v>
+        <v>0.2434342354854522</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6186530771576644</v>
+        <v>1.548433615247763</v>
       </c>
       <c r="O14">
-        <v>1.787602162102019</v>
+        <v>3.02914496123023</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.79713987841572</v>
+        <v>0.7339519419436726</v>
       </c>
       <c r="C15">
-        <v>0.1160543823079792</v>
+        <v>0.1123723749368821</v>
       </c>
       <c r="D15">
-        <v>0.09752627906621569</v>
+        <v>0.05135889309521247</v>
       </c>
       <c r="E15">
-        <v>0.08580669252367912</v>
+        <v>0.1014026485114243</v>
       </c>
       <c r="F15">
-        <v>0.6524380460304116</v>
+        <v>0.8757258974080528</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3788534797243415</v>
+        <v>0.7783762384658388</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.548496270473748</v>
+        <v>0.5082957368848895</v>
       </c>
       <c r="L15">
-        <v>0.4122353118871018</v>
+        <v>0.2423385857288309</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6228163829504094</v>
+        <v>1.55020414177678</v>
       </c>
       <c r="O15">
-        <v>1.779712106575232</v>
+        <v>3.029456464170408</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.682317355538686</v>
+        <v>0.7014419558196323</v>
       </c>
       <c r="C16">
-        <v>0.11254443806083</v>
+        <v>0.111197532824427</v>
       </c>
       <c r="D16">
-        <v>0.09267267634645293</v>
+        <v>0.04971090081727425</v>
       </c>
       <c r="E16">
-        <v>0.08191472744968564</v>
+        <v>0.1007572885720478</v>
       </c>
       <c r="F16">
-        <v>0.6281033943370318</v>
+        <v>0.8733253452706435</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.374728042213313</v>
+        <v>0.7806713520752169</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.450290942196403</v>
+        <v>0.479321671420962</v>
       </c>
       <c r="L16">
-        <v>0.3868736621820688</v>
+        <v>0.2360921667980875</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6470485843893758</v>
+        <v>1.560505773939852</v>
       </c>
       <c r="O16">
-        <v>1.73577468922872</v>
+        <v>3.031710597432806</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.612075761686725</v>
+        <v>0.6815326375670452</v>
       </c>
       <c r="C17">
-        <v>0.1103927206276509</v>
+        <v>0.1104737895494665</v>
       </c>
       <c r="D17">
-        <v>0.08969371052582886</v>
+        <v>0.04869591416915853</v>
       </c>
       <c r="E17">
-        <v>0.07955975923831105</v>
+        <v>0.1003743021107333</v>
       </c>
       <c r="F17">
-        <v>0.6135322300398087</v>
+        <v>0.8719808859547058</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3724401661512644</v>
+        <v>0.782179118971797</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.390173340341221</v>
+        <v>0.4615467685254373</v>
       </c>
       <c r="L17">
-        <v>0.371424323060765</v>
+        <v>0.2322891009502257</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6622412737845833</v>
+        <v>1.56696418006926</v>
       </c>
       <c r="O17">
-        <v>1.709923770450104</v>
+        <v>3.03351204842636</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.571742017327722</v>
+        <v>0.6700942471657072</v>
       </c>
       <c r="C18">
-        <v>0.1091555230182806</v>
+        <v>0.1100564102530228</v>
       </c>
       <c r="D18">
-        <v>0.08797964211530029</v>
+        <v>0.04811066097735051</v>
       </c>
       <c r="E18">
-        <v>0.07821678332209103</v>
+        <v>0.1001587740179311</v>
       </c>
       <c r="F18">
-        <v>0.605277712549487</v>
+        <v>0.8712547240074144</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3712107420457471</v>
+        <v>0.7830830260889812</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.355637890174421</v>
+        <v>0.451323214253307</v>
       </c>
       <c r="L18">
-        <v>0.3625763004095006</v>
+        <v>0.2301123346785232</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6710972934181285</v>
+        <v>1.570729839693509</v>
       </c>
       <c r="O18">
-        <v>1.695446324637629</v>
+        <v>3.034702067418635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.558096764058604</v>
+        <v>0.6662236472070049</v>
       </c>
       <c r="C19">
-        <v>0.1087366868315911</v>
+        <v>0.1099149043035013</v>
       </c>
       <c r="D19">
-        <v>0.0873991661344462</v>
+        <v>0.04791225445401182</v>
       </c>
       <c r="E19">
-        <v>0.07776401487111073</v>
+        <v>0.1000866173657116</v>
       </c>
       <c r="F19">
-        <v>0.6025041354710865</v>
+        <v>0.8710169556729639</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3708090791406775</v>
+        <v>0.7833953739393067</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.34395168116373</v>
+        <v>0.4478617298171059</v>
       </c>
       <c r="L19">
-        <v>0.3595868482559013</v>
+        <v>0.2293771523636963</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6741157447238857</v>
+        <v>1.572013577811679</v>
       </c>
       <c r="O19">
-        <v>1.690610410553205</v>
+        <v>3.035131418196073</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.619546005440327</v>
+        <v>0.6836506864756302</v>
       </c>
       <c r="C20">
-        <v>0.1106217286461373</v>
+        <v>0.1105509473938824</v>
       </c>
       <c r="D20">
-        <v>0.09001089077913349</v>
+        <v>0.04880411251070882</v>
       </c>
       <c r="E20">
-        <v>0.07980924533409706</v>
+        <v>0.1004145796493567</v>
       </c>
       <c r="F20">
-        <v>0.6150701616949448</v>
+        <v>0.8721191280869647</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3726747002242234</v>
+        <v>0.7820148185882942</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.396568452656169</v>
+        <v>0.4634389312974463</v>
       </c>
       <c r="L20">
-        <v>0.3730649490906757</v>
+        <v>0.2326928416105289</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6606117588281384</v>
+        <v>1.566271397761112</v>
       </c>
       <c r="O20">
-        <v>1.712634831768185</v>
+        <v>3.033304356455943</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.826850721329151</v>
+        <v>0.7423558513435751</v>
       </c>
       <c r="C21">
-        <v>0.1169611731944542</v>
+        <v>0.1126747580817096</v>
       </c>
       <c r="D21">
-        <v>0.09877903771594987</v>
+        <v>0.05178312925298201</v>
       </c>
       <c r="E21">
-        <v>0.08682198422352627</v>
+        <v>0.1015732565439542</v>
       </c>
       <c r="F21">
-        <v>0.6588353461387157</v>
+        <v>0.8763852897762305</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3799960184111768</v>
+        <v>0.7778145300681487</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.573894359377903</v>
+        <v>0.5157760361308306</v>
       </c>
       <c r="L21">
-        <v>0.4188187157910335</v>
+        <v>0.2439601996475886</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6166633703359841</v>
+        <v>1.547587350095868</v>
       </c>
       <c r="O21">
-        <v>1.791408776927398</v>
+        <v>3.029003882809121</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.96305621858437</v>
+        <v>0.7808329971532544</v>
       </c>
       <c r="C22">
-        <v>0.1211112293692835</v>
+        <v>0.1140528365433795</v>
       </c>
       <c r="D22">
-        <v>0.1045063322651743</v>
+        <v>0.0537168971473676</v>
       </c>
       <c r="E22">
-        <v>0.09151775230603576</v>
+        <v>0.1023727140169903</v>
       </c>
       <c r="F22">
-        <v>0.6886706592495102</v>
+        <v>0.8795927435221103</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3856116062141837</v>
+        <v>0.7753958691518505</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.690264577937228</v>
+        <v>0.5499781580378738</v>
       </c>
       <c r="L22">
-        <v>0.4491058684662619</v>
+        <v>0.2514182764704174</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5890439341867113</v>
+        <v>1.535830262570573</v>
       </c>
       <c r="O22">
-        <v>1.846683792571781</v>
+        <v>3.027562782080707</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.890288858613616</v>
+        <v>0.7602872114176478</v>
       </c>
       <c r="C23">
-        <v>0.1188954759756342</v>
+        <v>0.1133182481173876</v>
       </c>
       <c r="D23">
-        <v>0.1014497313352507</v>
+        <v>0.05268602524598975</v>
       </c>
       <c r="E23">
-        <v>0.08900074432066774</v>
+        <v>0.101942175080076</v>
       </c>
       <c r="F23">
-        <v>0.6726288925394428</v>
+        <v>0.8778425245390622</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3825354178222469</v>
+        <v>0.7766568894895798</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.628106958981419</v>
+        <v>0.5317243329693042</v>
       </c>
       <c r="L23">
-        <v>0.4329035671475765</v>
+        <v>0.2474291740566628</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6036811606337791</v>
+        <v>1.542063685384085</v>
       </c>
       <c r="O23">
-        <v>1.81682008924156</v>
+        <v>3.028206648975782</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.616168556653548</v>
+        <v>0.6826930923919008</v>
       </c>
       <c r="C24">
-        <v>0.1105181946118137</v>
+        <v>0.1105160683486588</v>
       </c>
       <c r="D24">
-        <v>0.08986749804140715</v>
+        <v>0.04875520140789291</v>
       </c>
       <c r="E24">
-        <v>0.07969641874220557</v>
+        <v>0.1003963556700604</v>
       </c>
       <c r="F24">
-        <v>0.6143744819544352</v>
+        <v>0.8720564830803781</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3725684004460206</v>
+        <v>0.7820889833135567</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.393677139465041</v>
+        <v>0.46258349856069</v>
       </c>
       <c r="L24">
-        <v>0.3723231166308238</v>
+        <v>0.2325102803402643</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.661348084580534</v>
+        <v>1.56658444068636</v>
       </c>
       <c r="O24">
-        <v>1.711407966357797</v>
+        <v>3.033397773225801</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.322999339588961</v>
+        <v>0.5994920678619451</v>
       </c>
       <c r="C25">
-        <v>0.1014961899534654</v>
+        <v>0.1074514360040411</v>
       </c>
       <c r="D25">
-        <v>0.07734813589708978</v>
+        <v>0.04445946247155774</v>
       </c>
       <c r="E25">
-        <v>0.07009630954182455</v>
+        <v>0.0989108347578167</v>
       </c>
       <c r="F25">
-        <v>0.5563167675948719</v>
+        <v>0.8676175942544475</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3650935366421706</v>
+        <v>0.7893507933879711</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.142385407620566</v>
+        <v>0.3880098704332511</v>
       </c>
       <c r="L25">
-        <v>0.3084076485439198</v>
+        <v>0.2168255955495653</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7280181106501216</v>
+        <v>1.594982092841879</v>
       </c>
       <c r="O25">
-        <v>1.612507854936212</v>
+        <v>3.044880393637953</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_134/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_134/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.538671267783343</v>
+        <v>1.108664671039378</v>
       </c>
       <c r="C2">
-        <v>0.1051590893890193</v>
+        <v>0.09484895907664992</v>
       </c>
       <c r="D2">
-        <v>0.041248916846925</v>
+        <v>0.06809303317520232</v>
       </c>
       <c r="E2">
-        <v>0.09797392431060459</v>
+        <v>0.06335272080477239</v>
       </c>
       <c r="F2">
-        <v>0.8658998088535341</v>
+        <v>0.5171441020886007</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7959050165789847</v>
+        <v>0.3621076045799327</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3331153853717694</v>
+        <v>0.958196708695084</v>
       </c>
       <c r="L2">
-        <v>0.2056283115882991</v>
+        <v>0.2623406713680509</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.617569122752709</v>
+        <v>0.780681333867157</v>
       </c>
       <c r="O2">
-        <v>3.058396782020139</v>
+        <v>1.550889257650852</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4977341740917325</v>
+        <v>0.9640686243509435</v>
       </c>
       <c r="C3">
-        <v>0.1035833427650914</v>
+        <v>0.09033398612718457</v>
       </c>
       <c r="D3">
-        <v>0.03904359781390099</v>
+        <v>0.061790854239824</v>
       </c>
       <c r="E3">
-        <v>0.09743708183723854</v>
+        <v>0.058962024457891</v>
       </c>
       <c r="F3">
-        <v>0.8657033429486631</v>
+        <v>0.4925794818839364</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8011007215043442</v>
+        <v>0.3615160248210678</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2959267575986644</v>
+        <v>0.8336550341258544</v>
       </c>
       <c r="L3">
-        <v>0.1982594525952237</v>
+        <v>0.2316317993426935</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.633924489781492</v>
+        <v>0.8184776129538105</v>
       </c>
       <c r="O3">
-        <v>3.070715944059117</v>
+        <v>1.515411289254814</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4727407509762145</v>
+        <v>0.8755243074249677</v>
       </c>
       <c r="C4">
-        <v>0.1026049566053544</v>
+        <v>0.08755464522110401</v>
       </c>
       <c r="D4">
-        <v>0.03767506608321725</v>
+        <v>0.05790452944043523</v>
       </c>
       <c r="E4">
-        <v>0.09715595846720859</v>
+        <v>0.05634750678408196</v>
       </c>
       <c r="F4">
-        <v>0.8660603216340874</v>
+        <v>0.4783986427025084</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8046630018676417</v>
+        <v>0.3618162348671738</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2731019816423839</v>
+        <v>0.7572551413564099</v>
       </c>
       <c r="L4">
-        <v>0.1938435960834113</v>
+        <v>0.2129952788798448</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.644483976683109</v>
+        <v>0.842684814738023</v>
       </c>
       <c r="O4">
-        <v>3.079838884716693</v>
+        <v>1.496508224051354</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4625921552024579</v>
+        <v>0.8394900065639774</v>
       </c>
       <c r="C5">
-        <v>0.1022035415682723</v>
+        <v>0.08641996998569113</v>
       </c>
       <c r="D5">
-        <v>0.03711376696979585</v>
+        <v>0.0563163498160435</v>
       </c>
       <c r="E5">
-        <v>0.09705361697469428</v>
+        <v>0.05530154217359495</v>
       </c>
       <c r="F5">
-        <v>0.8663259775372723</v>
+        <v>0.472835962355262</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8062082719799015</v>
+        <v>0.3620993398451162</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2638035503759824</v>
+        <v>0.7261295031383952</v>
       </c>
       <c r="L5">
-        <v>0.1920715128021016</v>
+        <v>0.2054512075092845</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.648917129387462</v>
+        <v>0.8527953423189425</v>
       </c>
       <c r="O5">
-        <v>3.083948746751886</v>
+        <v>1.489498788908008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4609092090261697</v>
+        <v>0.8335091213242549</v>
       </c>
       <c r="C6">
-        <v>0.1021367235026247</v>
+        <v>0.08623142515968141</v>
       </c>
       <c r="D6">
-        <v>0.03702034626972051</v>
+        <v>0.05605235655620788</v>
       </c>
       <c r="E6">
-        <v>0.09703736188988543</v>
+        <v>0.05512900841365465</v>
       </c>
       <c r="F6">
-        <v>0.8663773508396631</v>
+        <v>0.4719250338491037</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8064705181707481</v>
+        <v>0.3621558868777264</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2622597409564662</v>
+        <v>0.7209613271742086</v>
       </c>
       <c r="L6">
-        <v>0.1917789181870972</v>
+        <v>0.2042014383669084</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.649661107784386</v>
+        <v>0.8544888803707495</v>
       </c>
       <c r="O6">
-        <v>3.084654878968777</v>
+        <v>1.488375906806596</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4726037350579873</v>
+        <v>0.8750381559726463</v>
       </c>
       <c r="C7">
-        <v>0.1025995539488562</v>
+        <v>0.08753935133425017</v>
       </c>
       <c r="D7">
-        <v>0.03766751079834307</v>
+        <v>0.05788312912532945</v>
       </c>
       <c r="E7">
-        <v>0.09715452875119723</v>
+        <v>0.05633332297732352</v>
       </c>
       <c r="F7">
-        <v>0.8660634176284034</v>
+        <v>0.4783227611243603</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8046834628297468</v>
+        <v>0.3618194097977678</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2729765674920088</v>
+        <v>0.7568353501146419</v>
       </c>
       <c r="L7">
-        <v>0.193819586026919</v>
+        <v>0.212893338464383</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.644543237036654</v>
+        <v>0.8428201804296584</v>
       </c>
       <c r="O7">
-        <v>3.079892723548213</v>
+        <v>1.496410922993206</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5245270623254044</v>
+        <v>1.058751247756334</v>
       </c>
       <c r="C8">
-        <v>0.1046180392462261</v>
+        <v>0.09329350107520895</v>
       </c>
       <c r="D8">
-        <v>0.04049153719945764</v>
+        <v>0.06592336087089024</v>
       </c>
       <c r="E8">
-        <v>0.09777876813330977</v>
+        <v>0.06182130453062129</v>
       </c>
       <c r="F8">
-        <v>0.8657329883880962</v>
+        <v>0.5084804470910669</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7976192937273936</v>
+        <v>0.3617621995431684</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3202911507573276</v>
+        <v>0.9152344895449289</v>
       </c>
       <c r="L8">
-        <v>0.2030650309879718</v>
+        <v>0.2517040054706996</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.62310111396725</v>
+        <v>0.7935024755365614</v>
       </c>
       <c r="O8">
-        <v>3.062320980859653</v>
+        <v>1.538039728504685</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6274510899459642</v>
+        <v>1.42147642747031</v>
       </c>
       <c r="C9">
-        <v>0.1084893561278051</v>
+        <v>0.1045349012209016</v>
       </c>
       <c r="D9">
-        <v>0.04591390937508777</v>
+        <v>0.08157013480538922</v>
       </c>
       <c r="E9">
-        <v>0.09938689841980519</v>
+        <v>0.07327642693739733</v>
       </c>
       <c r="F9">
-        <v>0.8688720300209738</v>
+        <v>0.5752839214225602</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7867171728087534</v>
+        <v>0.3672010855017014</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4131286422375524</v>
+        <v>1.226870343587109</v>
       </c>
       <c r="L9">
-        <v>0.2220544979287951</v>
+        <v>0.3297681772322676</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.585155804068794</v>
+        <v>0.7049877532430742</v>
       </c>
       <c r="O9">
-        <v>3.04022632527213</v>
+        <v>1.643984341226314</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.703715481109441</v>
+        <v>1.690341933065866</v>
       </c>
       <c r="C10">
-        <v>0.1112799672328038</v>
+        <v>0.1127900303671439</v>
       </c>
       <c r="D10">
-        <v>0.04982651940309069</v>
+        <v>0.09301251797145227</v>
       </c>
       <c r="E10">
-        <v>0.1008016338701445</v>
+        <v>0.08218504167310314</v>
       </c>
       <c r="F10">
-        <v>0.8734851428682902</v>
+        <v>0.6297835484924974</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.7805042750361579</v>
+        <v>0.3750010254409801</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4813499111045303</v>
+        <v>1.457156874499532</v>
       </c>
       <c r="L10">
-        <v>0.2365275647398022</v>
+        <v>0.3886418432915235</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.559775730341798</v>
+        <v>0.6453311120624967</v>
       </c>
       <c r="O10">
-        <v>3.031525887103356</v>
+        <v>1.738778496815257</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7385453508412638</v>
+        <v>1.813377648387927</v>
       </c>
       <c r="C11">
-        <v>0.1125377160006309</v>
+        <v>0.1165500380011508</v>
       </c>
       <c r="D11">
-        <v>0.05159085896970339</v>
+        <v>0.09821110156277513</v>
       </c>
       <c r="E11">
-        <v>0.101495714173776</v>
+        <v>0.0863611669117077</v>
       </c>
       <c r="F11">
-        <v>0.8760844041170444</v>
+        <v>0.6559293195200553</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7780676722788868</v>
+        <v>0.3794741655315903</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5123847872752378</v>
+        <v>1.562377646020025</v>
       </c>
       <c r="L11">
-        <v>0.2432245889232263</v>
+        <v>0.415832268789913</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.548771592419298</v>
+        <v>0.6194477623627144</v>
       </c>
       <c r="O11">
-        <v>3.029202715278331</v>
+        <v>1.786088294984495</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7517535861373119</v>
+        <v>1.860090576217345</v>
       </c>
       <c r="C12">
-        <v>0.1130122920402101</v>
+        <v>0.1179750070148202</v>
       </c>
       <c r="D12">
-        <v>0.05225671511964691</v>
+        <v>0.1001791115735173</v>
       </c>
       <c r="E12">
-        <v>0.1017657882381862</v>
+        <v>0.08796175860898359</v>
       </c>
       <c r="F12">
-        <v>0.8771406247382245</v>
+        <v>0.6660402121811018</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7772009957414951</v>
+        <v>0.381309795472653</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5241365198428412</v>
+        <v>1.602303132440227</v>
       </c>
       <c r="L12">
-        <v>0.2457767771810069</v>
+        <v>0.4261940638118205</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.544682453440084</v>
+        <v>0.6098348855961131</v>
       </c>
       <c r="O12">
-        <v>3.028557945559299</v>
+        <v>1.804650102745256</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7489081269086455</v>
+        <v>1.850024397309227</v>
       </c>
       <c r="C13">
-        <v>0.1129101598233149</v>
+        <v>0.1176680561878101</v>
       </c>
       <c r="D13">
-        <v>0.05211341209275133</v>
+        <v>0.09975528508829967</v>
       </c>
       <c r="E13">
-        <v>0.1017073012718903</v>
+        <v>0.08761616586099308</v>
       </c>
       <c r="F13">
-        <v>0.8769099504141735</v>
+        <v>0.6638530524117954</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7773851592539955</v>
+        <v>0.3809080102095805</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5216056058189906</v>
+        <v>1.593700640351557</v>
       </c>
       <c r="L13">
-        <v>0.2452264001990301</v>
+        <v>0.4239594483231883</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.545559657896668</v>
+        <v>0.6118966679515943</v>
       </c>
       <c r="O13">
-        <v>3.028686359773985</v>
+        <v>1.800622988362306</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.739631625456127</v>
+        <v>1.817218200831007</v>
       </c>
       <c r="C14">
-        <v>0.1125767939738296</v>
+        <v>0.116667245524873</v>
       </c>
       <c r="D14">
-        <v>0.05164568483124299</v>
+        <v>0.09837302036579842</v>
       </c>
       <c r="E14">
-        <v>0.101517788339379</v>
+        <v>0.08649245566008901</v>
       </c>
       <c r="F14">
-        <v>0.8761698586956825</v>
+        <v>0.6567568471632796</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7779952478446788</v>
+        <v>0.3796222909840239</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5133516228712836</v>
+        <v>1.565660638346571</v>
       </c>
       <c r="L14">
-        <v>0.2434342354854522</v>
+        <v>0.4166833902750682</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.548433615247763</v>
+        <v>0.618653077157675</v>
       </c>
       <c r="O14">
-        <v>3.02914496123023</v>
+        <v>1.78760216210199</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7339519419436726</v>
+        <v>1.797139878415663</v>
       </c>
       <c r="C15">
-        <v>0.1123723749368821</v>
+        <v>0.116054382307972</v>
       </c>
       <c r="D15">
-        <v>0.05135889309521247</v>
+        <v>0.0975262790662228</v>
       </c>
       <c r="E15">
-        <v>0.1014026485114243</v>
+        <v>0.08580669252366135</v>
       </c>
       <c r="F15">
-        <v>0.8757258974080528</v>
+        <v>0.6524380460304116</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7783762384658388</v>
+        <v>0.3788534797243557</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5082957368848895</v>
+        <v>1.548496270473777</v>
       </c>
       <c r="L15">
-        <v>0.2423385857288309</v>
+        <v>0.4122353118872581</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.55020414177678</v>
+        <v>0.6228163829504076</v>
       </c>
       <c r="O15">
-        <v>3.029456464170408</v>
+        <v>1.779712106575204</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7014419558196323</v>
+        <v>1.682317355538629</v>
       </c>
       <c r="C16">
-        <v>0.111197532824427</v>
+        <v>0.112544438060354</v>
       </c>
       <c r="D16">
-        <v>0.04971090081727425</v>
+        <v>0.09267267634638898</v>
       </c>
       <c r="E16">
-        <v>0.1007572885720478</v>
+        <v>0.08191472744970696</v>
       </c>
       <c r="F16">
-        <v>0.8733253452706435</v>
+        <v>0.628103394337046</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.7806713520752169</v>
+        <v>0.3747280422133201</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.479321671420962</v>
+        <v>1.450290942196375</v>
       </c>
       <c r="L16">
-        <v>0.2360921667980875</v>
+        <v>0.3868736621820545</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.560505773939852</v>
+        <v>0.6470485843893368</v>
       </c>
       <c r="O16">
-        <v>3.031710597432806</v>
+        <v>1.735774689228663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6815326375670452</v>
+        <v>1.612075761686839</v>
       </c>
       <c r="C17">
-        <v>0.1104737895494665</v>
+        <v>0.1103927206272743</v>
       </c>
       <c r="D17">
-        <v>0.04869591416915853</v>
+        <v>0.08969371052594965</v>
       </c>
       <c r="E17">
-        <v>0.1003743021107333</v>
+        <v>0.07955975923834657</v>
       </c>
       <c r="F17">
-        <v>0.8719808859547058</v>
+        <v>0.6135322300398016</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.782179118971797</v>
+        <v>0.3724401661512573</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4615467685254373</v>
+        <v>1.390173340341221</v>
       </c>
       <c r="L17">
-        <v>0.2322891009502257</v>
+        <v>0.3714243230607508</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.56696418006926</v>
+        <v>0.6622412737845202</v>
       </c>
       <c r="O17">
-        <v>3.03351204842636</v>
+        <v>1.709923770450104</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6700942471657072</v>
+        <v>1.571742017327892</v>
       </c>
       <c r="C18">
-        <v>0.1100564102530228</v>
+        <v>0.1091555230180532</v>
       </c>
       <c r="D18">
-        <v>0.04811066097735051</v>
+        <v>0.08797964211537135</v>
       </c>
       <c r="E18">
-        <v>0.1001587740179311</v>
+        <v>0.07821678332208748</v>
       </c>
       <c r="F18">
-        <v>0.8712547240074144</v>
+        <v>0.6052777125494799</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7830830260889812</v>
+        <v>0.3712107420457471</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.451323214253307</v>
+        <v>1.355637890174449</v>
       </c>
       <c r="L18">
-        <v>0.2301123346785232</v>
+        <v>0.362576300409458</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.570729839693509</v>
+        <v>0.671097293418117</v>
       </c>
       <c r="O18">
-        <v>3.034702067418635</v>
+        <v>1.695446324637629</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6662236472070049</v>
+        <v>1.558096764058718</v>
       </c>
       <c r="C19">
-        <v>0.1099149043035013</v>
+        <v>0.1087366868313566</v>
       </c>
       <c r="D19">
-        <v>0.04791225445401182</v>
+        <v>0.08739916613455279</v>
       </c>
       <c r="E19">
-        <v>0.1000866173657116</v>
+        <v>0.07776401487110718</v>
       </c>
       <c r="F19">
-        <v>0.8710169556729639</v>
+        <v>0.6025041354711007</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.7833953739393067</v>
+        <v>0.3708090791406633</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4478617298171059</v>
+        <v>1.343951681163873</v>
       </c>
       <c r="L19">
-        <v>0.2293771523636963</v>
+        <v>0.3595868482559723</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.572013577811679</v>
+        <v>0.674115744723875</v>
       </c>
       <c r="O19">
-        <v>3.035131418196073</v>
+        <v>1.69061041055329</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6836506864756302</v>
+        <v>1.619546005440498</v>
       </c>
       <c r="C20">
-        <v>0.1105509473938824</v>
+        <v>0.1106217286462794</v>
       </c>
       <c r="D20">
-        <v>0.04880411251070882</v>
+        <v>0.09001089077938929</v>
       </c>
       <c r="E20">
-        <v>0.1004145796493567</v>
+        <v>0.07980924533411127</v>
       </c>
       <c r="F20">
-        <v>0.8721191280869647</v>
+        <v>0.6150701616949235</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.7820148185882942</v>
+        <v>0.3726747002242305</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4634389312974463</v>
+        <v>1.396568452656226</v>
       </c>
       <c r="L20">
-        <v>0.2326928416105289</v>
+        <v>0.3730649490906472</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.566271397761112</v>
+        <v>0.6606117588281357</v>
       </c>
       <c r="O20">
-        <v>3.033304356455943</v>
+        <v>1.712634831768241</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7423558513435751</v>
+        <v>1.826850721329095</v>
       </c>
       <c r="C21">
-        <v>0.1126747580817096</v>
+        <v>0.1169611731946461</v>
       </c>
       <c r="D21">
-        <v>0.05178312925298201</v>
+        <v>0.09877903771607066</v>
       </c>
       <c r="E21">
-        <v>0.1015732565439542</v>
+        <v>0.0868219842234943</v>
       </c>
       <c r="F21">
-        <v>0.8763852897762305</v>
+        <v>0.6588353461387015</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7778145300681487</v>
+        <v>0.3799960184111413</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5157760361308306</v>
+        <v>1.57389435937796</v>
       </c>
       <c r="L21">
-        <v>0.2439601996475886</v>
+        <v>0.4188187157910193</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.547587350095868</v>
+        <v>0.6166633703359183</v>
       </c>
       <c r="O21">
-        <v>3.029003882809121</v>
+        <v>1.791408776927341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7808329971532544</v>
+        <v>1.963056218584114</v>
       </c>
       <c r="C22">
-        <v>0.1140528365433795</v>
+        <v>0.1211112293689425</v>
       </c>
       <c r="D22">
-        <v>0.0537168971473676</v>
+        <v>0.1045063322651743</v>
       </c>
       <c r="E22">
-        <v>0.1023727140169903</v>
+        <v>0.09151775230602865</v>
       </c>
       <c r="F22">
-        <v>0.8795927435221103</v>
+        <v>0.6886706592495102</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7753958691518505</v>
+        <v>0.3856116062141837</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5499781580378738</v>
+        <v>1.690264577937228</v>
       </c>
       <c r="L22">
-        <v>0.2514182764704174</v>
+        <v>0.449105868466205</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.535830262570573</v>
+        <v>0.5890439341867175</v>
       </c>
       <c r="O22">
-        <v>3.027562782080707</v>
+        <v>1.846683792571753</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7602872114176478</v>
+        <v>1.890288858613502</v>
       </c>
       <c r="C23">
-        <v>0.1133182481173876</v>
+        <v>0.1188954759751653</v>
       </c>
       <c r="D23">
-        <v>0.05268602524598975</v>
+        <v>0.1014497313353004</v>
       </c>
       <c r="E23">
-        <v>0.101942175080076</v>
+        <v>0.08900074432065352</v>
       </c>
       <c r="F23">
-        <v>0.8778425245390622</v>
+        <v>0.6726288925394428</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7766568894895798</v>
+        <v>0.382535417822254</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5317243329693042</v>
+        <v>1.628106958981533</v>
       </c>
       <c r="L23">
-        <v>0.2474291740566628</v>
+        <v>0.4329035671475623</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.542063685384085</v>
+        <v>0.6036811606337684</v>
       </c>
       <c r="O23">
-        <v>3.028206648975782</v>
+        <v>1.816820089241588</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6826930923919008</v>
+        <v>1.616168556653577</v>
       </c>
       <c r="C24">
-        <v>0.1105160683486588</v>
+        <v>0.1105181946117213</v>
       </c>
       <c r="D24">
-        <v>0.04875520140789291</v>
+        <v>0.08986749804141425</v>
       </c>
       <c r="E24">
-        <v>0.1003963556700604</v>
+        <v>0.07969641874217004</v>
       </c>
       <c r="F24">
-        <v>0.8720564830803781</v>
+        <v>0.6143744819544494</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.7820889833135567</v>
+        <v>0.3725684004460277</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.46258349856069</v>
+        <v>1.393677139465183</v>
       </c>
       <c r="L24">
-        <v>0.2325102803402643</v>
+        <v>0.3723231166308096</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.56658444068636</v>
+        <v>0.6613480845805242</v>
       </c>
       <c r="O24">
-        <v>3.033397773225801</v>
+        <v>1.711407966357797</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5994920678619451</v>
+        <v>1.322999339589018</v>
       </c>
       <c r="C25">
-        <v>0.1074514360040411</v>
+        <v>0.1014961899532167</v>
       </c>
       <c r="D25">
-        <v>0.04445946247155774</v>
+        <v>0.0773481358971253</v>
       </c>
       <c r="E25">
-        <v>0.0989108347578167</v>
+        <v>0.070096309541821</v>
       </c>
       <c r="F25">
-        <v>0.8676175942544475</v>
+        <v>0.5563167675948932</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7893507933879711</v>
+        <v>0.3650935366421528</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3880098704332511</v>
+        <v>1.142385407620566</v>
       </c>
       <c r="L25">
-        <v>0.2168255955495653</v>
+        <v>0.3084076485439908</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.594982092841879</v>
+        <v>0.7280181106501082</v>
       </c>
       <c r="O25">
-        <v>3.044880393637953</v>
+        <v>1.612507854936268</v>
       </c>
     </row>
   </sheetData>
